--- a/tests/data/xlsx/appointments_2021.xlsx
+++ b/tests/data/xlsx/appointments_2021.xlsx
@@ -129,13 +129,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -152,9 +152,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
